--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/64.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/64.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2511931844306437</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.116277490475419</v>
+        <v>-2.141721551347318</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1325537937204093</v>
+        <v>-0.0657168562003269</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2401218439544038</v>
+        <v>-0.2057637923918322</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2144113146569673</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.248744942416976</v>
+        <v>-2.277166026112082</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.181482850250492</v>
+        <v>-0.05645826032729138</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2374046473394912</v>
+        <v>-0.2061724392452534</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1873800958809821</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.499025282199865</v>
+        <v>-2.513830496707247</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2181531110986155</v>
+        <v>-0.07323229877921647</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.310091943990941</v>
+        <v>-0.2489821616255229</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1740524689267422</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.649284120282163</v>
+        <v>-2.731352606862675</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1931012292218658</v>
+        <v>-0.03078181967755164</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3523759147478536</v>
+        <v>-0.2671413299343428</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1661654355127428</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.745245989958319</v>
+        <v>-2.916247010415464</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1479061070748347</v>
+        <v>0.02665746005519672</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3542983847209635</v>
+        <v>-0.294385266723325</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1586587750820608</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.655336363157534</v>
+        <v>-2.915590735767283</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03578126345867091</v>
+        <v>0.2224334584018488</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3666626966800002</v>
+        <v>-0.3202507827828567</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.147719787656522</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.494178852502424</v>
+        <v>-2.915591955608637</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1391073153858827</v>
+        <v>0.3620577195643678</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3546661668890426</v>
+        <v>-0.3519373817812718</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1264314650625076</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.175838074321897</v>
+        <v>-2.645360500568643</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2275464234350278</v>
+        <v>0.5499315856230721</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3516726762075632</v>
+        <v>-0.3638412036293636</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.08595728290895477</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.73088935214133</v>
+        <v>-2.274320136234375</v>
       </c>
       <c r="F10" t="n">
-        <v>0.32020984209133</v>
+        <v>0.6262704773662124</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.283576252489996</v>
+        <v>-0.3501850796769746</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.0229820252473253</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.279820685890274</v>
+        <v>-1.870338566069623</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3417863959519693</v>
+        <v>0.6904207143052197</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2419156206647199</v>
+        <v>-0.303110182004206</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.0624397739279916</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6494768152813072</v>
+        <v>-1.343854427980022</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2791225357021971</v>
+        <v>0.6327313670950047</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1548006504047947</v>
+        <v>-0.2540194964947851</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1705155613918927</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.06446163944757939</v>
+        <v>-0.8667695952622773</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1369951600823041</v>
+        <v>0.4650007413065818</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03466701438843676</v>
+        <v>-0.1720601857154113</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3006660858106405</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6576289390405371</v>
+        <v>-0.3231375373459052</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1110425013721821</v>
+        <v>0.1922265269652245</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1142506081256923</v>
+        <v>-0.051866777472732</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4458245170871075</v>
       </c>
       <c r="E15" t="n">
-        <v>1.312128108131434</v>
+        <v>0.2264272189931951</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4092315003929541</v>
+        <v>-0.1269199564292875</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2934105374756971</v>
+        <v>0.07268085448125168</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.596793547648781</v>
       </c>
       <c r="E16" t="n">
-        <v>2.01960620704602</v>
+        <v>0.778026670709927</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7159179142821801</v>
+        <v>-0.4984269100812668</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4220080427232879</v>
+        <v>0.1640207452690106</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7500230077152205</v>
       </c>
       <c r="E17" t="n">
-        <v>2.604346308654535</v>
+        <v>1.253370789816233</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.032950412611083</v>
+        <v>-0.8962946353822973</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6241205069806756</v>
+        <v>0.3091306329982015</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9055192704293722</v>
       </c>
       <c r="E18" t="n">
-        <v>3.17450381680268</v>
+        <v>1.820867823972403</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.35213166148417</v>
+        <v>-1.265435706729171</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7950550460840561</v>
+        <v>0.4383496474153986</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.066202699425404</v>
       </c>
       <c r="E19" t="n">
-        <v>3.677889648943155</v>
+        <v>2.218620274265528</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.735663811198914</v>
+        <v>-1.625708531436128</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9682231147056879</v>
+        <v>0.600116468826579</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.231008314662534</v>
       </c>
       <c r="E20" t="n">
-        <v>4.04152923578576</v>
+        <v>2.517600950324719</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.078381898987709</v>
+        <v>-1.924580641614858</v>
       </c>
       <c r="G20" t="n">
-        <v>1.131695884249733</v>
+        <v>0.7367399202594975</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.39346757765189</v>
       </c>
       <c r="E21" t="n">
-        <v>4.407227914833069</v>
+        <v>2.865376500365108</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.47958040110446</v>
+        <v>-2.31227671978976</v>
       </c>
       <c r="G21" t="n">
-        <v>1.319232464174195</v>
+        <v>0.8938969611958161</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.5486988187368</v>
       </c>
       <c r="E22" t="n">
-        <v>4.690012757241892</v>
+        <v>3.124670857829657</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.778306740241447</v>
+        <v>-2.624222479674585</v>
       </c>
       <c r="G22" t="n">
-        <v>1.446819940781091</v>
+        <v>0.9821939577272789</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.692513854478147</v>
       </c>
       <c r="E23" t="n">
-        <v>4.912820439982017</v>
+        <v>3.377663514862044</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.161831265947732</v>
+        <v>-2.978656228782695</v>
       </c>
       <c r="G23" t="n">
-        <v>1.621428642041202</v>
+        <v>1.135234034095548</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.821163276720783</v>
       </c>
       <c r="E24" t="n">
-        <v>5.051212661377505</v>
+        <v>3.561636328272268</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.421489136135622</v>
+        <v>-3.2246421170806</v>
       </c>
       <c r="G24" t="n">
-        <v>1.775950215733292</v>
+        <v>1.265243505709811</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.93085509233625</v>
       </c>
       <c r="E25" t="n">
-        <v>5.207547529241568</v>
+        <v>3.717408849272368</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.685399068321461</v>
+        <v>-3.471747819741015</v>
       </c>
       <c r="G25" t="n">
-        <v>1.845401273273917</v>
+        <v>1.351987644198273</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.018134257670669</v>
       </c>
       <c r="E26" t="n">
-        <v>5.247177735133949</v>
+        <v>3.759555587877013</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.845885666232147</v>
+        <v>-3.648935875543094</v>
       </c>
       <c r="G26" t="n">
-        <v>1.887725498795495</v>
+        <v>1.408103396062478</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.080021941120469</v>
       </c>
       <c r="E27" t="n">
-        <v>5.252541377565271</v>
+        <v>3.809312916686119</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.024871463228941</v>
+        <v>-3.851597268409555</v>
       </c>
       <c r="G27" t="n">
-        <v>1.985511031295127</v>
+        <v>1.491674727190497</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.115541521863333</v>
       </c>
       <c r="E28" t="n">
-        <v>5.174861880174639</v>
+        <v>3.806709775237759</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.058899242745053</v>
+        <v>-4.012152482396375</v>
       </c>
       <c r="G28" t="n">
-        <v>2.023936033930255</v>
+        <v>1.538781340738457</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.125589447469192</v>
       </c>
       <c r="E29" t="n">
-        <v>5.086530728085278</v>
+        <v>3.786440891308067</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.085731788037569</v>
+        <v>-4.089372404557078</v>
       </c>
       <c r="G29" t="n">
-        <v>2.081643678760773</v>
+        <v>1.603460378904204</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.111768549054621</v>
       </c>
       <c r="E30" t="n">
-        <v>4.992299203369057</v>
+        <v>3.732416557444431</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.028224502149363</v>
+        <v>-4.096180949071616</v>
       </c>
       <c r="G30" t="n">
-        <v>2.066732947976313</v>
+        <v>1.651311705598473</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.076588071436305</v>
       </c>
       <c r="E31" t="n">
-        <v>4.914341582149827</v>
+        <v>3.706921873156362</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.973674111702032</v>
+        <v>-4.139178222059986</v>
       </c>
       <c r="G31" t="n">
-        <v>2.000478484702525</v>
+        <v>1.610985580213922</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.023592328381096</v>
       </c>
       <c r="E32" t="n">
-        <v>4.755305985529124</v>
+        <v>3.621373179194326</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.929568612844011</v>
+        <v>-4.114514249733648</v>
       </c>
       <c r="G32" t="n">
-        <v>1.936545989445116</v>
+        <v>1.581566666291656</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.957748175512692</v>
       </c>
       <c r="E33" t="n">
-        <v>4.512600250630769</v>
+        <v>3.488287267686546</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.835112637318746</v>
+        <v>-4.041506744726906</v>
       </c>
       <c r="G33" t="n">
-        <v>1.795623207161801</v>
+        <v>1.502029350519649</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.884234763878737</v>
       </c>
       <c r="E34" t="n">
-        <v>4.339143689529036</v>
+        <v>3.411736123547898</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.632997123457975</v>
+        <v>-3.896107144676259</v>
       </c>
       <c r="G34" t="n">
-        <v>1.68085992270421</v>
+        <v>1.428532689130154</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.807834400539815</v>
       </c>
       <c r="E35" t="n">
-        <v>4.108494866568637</v>
+        <v>3.294688686155885</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.472397995182429</v>
+        <v>-3.801192813762418</v>
       </c>
       <c r="G35" t="n">
-        <v>1.607578563313607</v>
+        <v>1.395611000761324</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.732343463797871</v>
       </c>
       <c r="E36" t="n">
-        <v>3.857434438240187</v>
+        <v>3.146314502964738</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.31256645207857</v>
+        <v>-3.673201264707177</v>
       </c>
       <c r="G36" t="n">
-        <v>1.532471711337498</v>
+        <v>1.330270808581982</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.658552772025648</v>
       </c>
       <c r="E37" t="n">
-        <v>3.611874274574652</v>
+        <v>3.010796227798087</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.213667204423196</v>
+        <v>-3.562139283876431</v>
       </c>
       <c r="G37" t="n">
-        <v>1.437690648091526</v>
+        <v>1.239991569851087</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.586476849227413</v>
       </c>
       <c r="E38" t="n">
-        <v>3.440692717597188</v>
+        <v>2.913383356831948</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.073440036671711</v>
+        <v>-3.413113705402517</v>
       </c>
       <c r="G38" t="n">
-        <v>1.363208964809084</v>
+        <v>1.172150092976401</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.516277551238184</v>
       </c>
       <c r="E39" t="n">
-        <v>3.056983080965511</v>
+        <v>2.722725812804565</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.847691926348983</v>
+        <v>-3.215974229382995</v>
       </c>
       <c r="G39" t="n">
-        <v>1.22465084498952</v>
+        <v>1.094765797193314</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.448064285927459</v>
       </c>
       <c r="E40" t="n">
-        <v>2.832640837802686</v>
+        <v>2.610145434449056</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.724403170671807</v>
+        <v>-3.091613538116435</v>
       </c>
       <c r="G40" t="n">
-        <v>1.132696764080276</v>
+        <v>1.022773200192681</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.379987738705009</v>
       </c>
       <c r="E41" t="n">
-        <v>2.556338232346341</v>
+        <v>2.431302053930283</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.543118887604689</v>
+        <v>-2.930842412210045</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9845262943951635</v>
+        <v>0.9217721658852326</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.309050449898488</v>
       </c>
       <c r="E42" t="n">
-        <v>2.273175239117935</v>
+        <v>2.186776315732512</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.492128299187198</v>
+        <v>-2.874980997268044</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9256244248795733</v>
+        <v>0.8531323028446829</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.233082459984431</v>
       </c>
       <c r="E43" t="n">
-        <v>2.012080395815626</v>
+        <v>1.974839249214067</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.346350548316968</v>
+        <v>-2.775337036466361</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8450386554642362</v>
+        <v>0.7826986630938172</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.150791364806511</v>
       </c>
       <c r="E44" t="n">
-        <v>1.699080083080704</v>
+        <v>1.716421347762005</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.283276211451744</v>
+        <v>-2.653108322925373</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7868479534577342</v>
+        <v>0.7626103156844432</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.063174762732389</v>
       </c>
       <c r="E45" t="n">
-        <v>1.468583740289492</v>
+        <v>1.507183790158847</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.226008319429162</v>
+        <v>-2.617082748232572</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6997220046256276</v>
+        <v>0.6906195484458396</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.9728852015730164</v>
       </c>
       <c r="E46" t="n">
-        <v>1.21960375138943</v>
+        <v>1.266979339955836</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.135794952131357</v>
+        <v>-2.524645000226667</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5812064881646822</v>
+        <v>0.5945155672520016</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.8818484127002711</v>
       </c>
       <c r="E47" t="n">
-        <v>1.022617060499433</v>
+        <v>1.083612177777623</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.072337585081135</v>
+        <v>-2.471072007663825</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4736573454716669</v>
+        <v>0.518951884689008</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.7927432192803299</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8071711203276563</v>
+        <v>0.8860375233552406</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.011995692847743</v>
+        <v>-2.399506965057591</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3955643218621991</v>
+        <v>0.4426794742996331</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.7083084680948902</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6539047633883135</v>
+        <v>0.7134531488212567</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.909345433030368</v>
+        <v>-2.292891610920677</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3048697271504396</v>
+        <v>0.3562421259115751</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.6294922242425615</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4815149535502121</v>
+        <v>0.562895449607352</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.894238307787995</v>
+        <v>-2.24268416065213</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2737979281941865</v>
+        <v>0.3125455788673139</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5569986546892766</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2743175806107759</v>
+        <v>0.3671956913452934</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.847261607344183</v>
+        <v>-2.184206795927557</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1550146565561488</v>
+        <v>0.2334437464585048</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4913424658690399</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1548823037692944</v>
+        <v>0.247915334355706</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.799402961601793</v>
+        <v>-2.12692670549144</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1329080816274154</v>
+        <v>0.1871074627252781</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4320043408752434</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.01901340021969786</v>
+        <v>0.06379248045900222</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.770477473507017</v>
+        <v>-2.056921230055651</v>
       </c>
       <c r="G53" t="n">
-        <v>0.08145944278168647</v>
+        <v>0.1476089996990738</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3786569529830311</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2231611697753938</v>
+        <v>-0.1333668179825145</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.683639407234335</v>
+        <v>-1.948133948388837</v>
       </c>
       <c r="G54" t="n">
-        <v>0.008360449673431728</v>
+        <v>0.08899440282223198</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3325591282459113</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3430240010112757</v>
+        <v>-0.2418900039962965</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.690009418782292</v>
+        <v>-1.9202251980622</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.009288215028950076</v>
+        <v>0.06211092915320783</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2939433552974586</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.4959054980035904</v>
+        <v>-0.392060403580466</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.700885524290063</v>
+        <v>-1.903255984993715</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1306386427954204</v>
+        <v>-0.04331934910878472</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2622229561158791</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6478605254879248</v>
+        <v>-0.4998773014505737</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.688980482600618</v>
+        <v>-1.819802368556309</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1440264016500403</v>
+        <v>-0.0648080743919723</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2373346454980488</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.8111576378770661</v>
+        <v>-0.6834103620528621</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.686433453854518</v>
+        <v>-1.785500429695998</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1999725955661094</v>
+        <v>-0.1167751458129371</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2186228726015499</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.9805210213171436</v>
+        <v>-0.8038660361865431</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.659992782596813</v>
+        <v>-1.762890670208947</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2434007775126014</v>
+        <v>-0.1883670249289474</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2041940991365813</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.178511031720391</v>
+        <v>-0.9252530591936183</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.684248717990406</v>
+        <v>-1.71257648382197</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2749172086422038</v>
+        <v>-0.2108261340088411</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1921443530682197</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.332872196274497</v>
+        <v>-1.101132225223395</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.625346238554139</v>
+        <v>-1.646725788036189</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3435345046177138</v>
+        <v>-0.2571666871868051</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1814432212172628</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.489339416925413</v>
+        <v>-1.22558592939316</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.590014753591478</v>
+        <v>-1.576074406603724</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3913711932157407</v>
+        <v>-0.3068410667838739</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1715147503971725</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.61962762228895</v>
+        <v>-1.312384960742529</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.631411289763722</v>
+        <v>-1.595191760295715</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4792150186843798</v>
+        <v>-0.3732059257001533</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.163394382323102</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.79181493846237</v>
+        <v>-1.46118791816943</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.578885531002856</v>
+        <v>-1.541025924835074</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5352026872064678</v>
+        <v>-0.4196062511044386</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1580610104089051</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.950100332650673</v>
+        <v>-1.649213044555968</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.573480413965515</v>
+        <v>-1.512655464556138</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5575465212784561</v>
+        <v>-0.4444172143138728</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1566564680144176</v>
       </c>
       <c r="E66" t="n">
-        <v>-2.127997726199809</v>
+        <v>-1.772445687530882</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.592601427181566</v>
+        <v>-1.484120935615157</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6331962026568713</v>
+        <v>-0.5015606825183984</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1593704077620254</v>
       </c>
       <c r="E67" t="n">
-        <v>-2.345804669311278</v>
+        <v>-1.941254043155119</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.583677677760066</v>
+        <v>-1.458230412807878</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6707429195174817</v>
+        <v>-0.5281581033900277</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1654984458468834</v>
       </c>
       <c r="E68" t="n">
-        <v>-2.511087683423911</v>
+        <v>-2.093044392056732</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.58988484048733</v>
+        <v>-1.42374244814116</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.7434875487125459</v>
+        <v>-0.5829198313518521</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1736341614821032</v>
       </c>
       <c r="E69" t="n">
-        <v>-2.603679131440357</v>
+        <v>-2.17321358564985</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.609602966045919</v>
+        <v>-1.433210856726996</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7387466352921831</v>
+        <v>-0.6241888941026559</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1829695132523282</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.769404947964309</v>
+        <v>-2.280877393430094</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.532338214715474</v>
+        <v>-1.382877152878363</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7628732675023061</v>
+        <v>-0.6347179547453576</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1931535800222603</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.934220152917876</v>
+        <v>-2.374106818474418</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.587364648251008</v>
+        <v>-1.340677961095518</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.8247735070647897</v>
+        <v>-0.6919516912100419</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.2039871484648831</v>
       </c>
       <c r="E72" t="n">
-        <v>-3.058903492222437</v>
+        <v>-2.390055634250703</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.547715534817647</v>
+        <v>-1.342563835828023</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.8825878880137381</v>
+        <v>-0.7378543213421007</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.2152062599798876</v>
       </c>
       <c r="E73" t="n">
-        <v>-3.109389981200595</v>
+        <v>-2.38656017885226</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.547064749455556</v>
+        <v>-1.287980814624486</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.9015661797914307</v>
+        <v>-0.7421835383056584</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.2267414024976876</v>
       </c>
       <c r="E74" t="n">
-        <v>-3.1607080970215</v>
+        <v>-2.40506822178818</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.608806409642086</v>
+        <v>-1.329144971018889</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.9113194213333089</v>
+        <v>-0.7693384266758355</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.2386071952555386</v>
       </c>
       <c r="E75" t="n">
-        <v>-3.145508263836262</v>
+        <v>-2.299500711373919</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.616828086382676</v>
+        <v>-1.258068474874731</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.9486508361950273</v>
+        <v>-0.7582634870274443</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.2514836837590667</v>
       </c>
       <c r="E76" t="n">
-        <v>-3.033467055358997</v>
+        <v>-2.191269067443623</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.608406301678139</v>
+        <v>-1.269174520477636</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.8878185677375294</v>
+        <v>-0.7509548075579723</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.2654470774393234</v>
       </c>
       <c r="E77" t="n">
-        <v>-2.91951496540148</v>
+        <v>-2.044630718498501</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.528954374800876</v>
+        <v>-1.177633965787227</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.9015009182790187</v>
+        <v>-0.720256280055889</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.279067560525347</v>
       </c>
       <c r="E78" t="n">
-        <v>-2.798232238830129</v>
+        <v>-1.858928779969697</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.512981162197521</v>
+        <v>-1.166052182056459</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.8647355098053224</v>
+        <v>-0.6932764389199387</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.291047048240561</v>
       </c>
       <c r="E79" t="n">
-        <v>-2.616494784700187</v>
+        <v>-1.658343557086886</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.491721157168114</v>
+        <v>-1.103810996835673</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.8356624209067728</v>
+        <v>-0.6580602289651826</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.3008991544320486</v>
       </c>
       <c r="E80" t="n">
-        <v>-2.433868066223547</v>
+        <v>-1.464644338644561</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.428960929451416</v>
+        <v>-0.9919100701140601</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.7688889151370721</v>
+        <v>-0.6166533241414337</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.3088640338583108</v>
       </c>
       <c r="E81" t="n">
-        <v>-2.187097819935343</v>
+        <v>-1.191258373864426</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.365679829476775</v>
+        <v>-0.8971009505169582</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.7383605555038016</v>
+        <v>-0.559461672203445</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.3156656459298662</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.94790461821438</v>
+        <v>-0.9094201283459155</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.356967722530105</v>
+        <v>-0.8629033080923714</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.6790049050047109</v>
+        <v>-0.5030196127771798</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.3215210640563864</v>
       </c>
       <c r="E83" t="n">
-        <v>-1.665159420649546</v>
+        <v>-0.6877237210788244</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.25823376337813</v>
+        <v>-0.7265860368391803</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.6206964883075965</v>
+        <v>-0.4434395114690457</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.326257953133288</v>
       </c>
       <c r="E84" t="n">
-        <v>-1.346651524203589</v>
+        <v>-0.4155954127341434</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.167296420237025</v>
+        <v>-0.6210093776147683</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.5589914233616723</v>
+        <v>-0.3979101527911567</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.3287213960924342</v>
       </c>
       <c r="E85" t="n">
-        <v>-1.080466282933141</v>
+        <v>-0.1620306501069662</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.069195558747513</v>
+        <v>-0.4984141017470551</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.5112675700888437</v>
+        <v>-0.3677928796940143</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.3270491643005688</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.7531572311217095</v>
+        <v>0.08647177090320202</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.982594751618087</v>
+        <v>-0.4214488214688945</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.4467160053445363</v>
+        <v>-0.3153708074481955</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.3194413161456966</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.4620420921098615</v>
+        <v>0.2957135979510978</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8559788786492506</v>
+        <v>-0.3212577618201677</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.3690968901009016</v>
+        <v>-0.2611110442033348</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.3043339169832033</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.1886177023270908</v>
+        <v>0.4950734901943215</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7687742500498436</v>
+        <v>-0.2557766779644962</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2318860850562748</v>
+        <v>-0.1849837949350259</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.280194529483589</v>
       </c>
       <c r="E89" t="n">
-        <v>0.05486080206870367</v>
+        <v>0.68757543434819</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6052038931975191</v>
+        <v>-0.1209299254629448</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.2174791487508089</v>
+        <v>-0.1681170485402351</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2461767018141655</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2825460204607839</v>
+        <v>0.8829342469519464</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4990935533809525</v>
+        <v>-0.04869762963634909</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1332265362268625</v>
+        <v>-0.1070029967300797</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2020482353908591</v>
       </c>
       <c r="E91" t="n">
-        <v>0.514923358619087</v>
+        <v>1.074307837853831</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3617375872152596</v>
+        <v>0.06312461731796311</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1174808240359346</v>
+        <v>-0.08532885556116071</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.149536205564224</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6578613188183782</v>
+        <v>1.161217874766369</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1523810950801352</v>
+        <v>0.2049720393472287</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1129271562633336</v>
+        <v>-0.0854569389032778</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.09238859245602347</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8089173232251859</v>
+        <v>1.294819169246001</v>
       </c>
       <c r="F93" t="n">
-        <v>0.02604266001303468</v>
+        <v>0.311039684716423</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.09159884011813074</v>
+        <v>-0.08149184458373868</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.03466506748709349</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9784581935821971</v>
+        <v>1.379393209966594</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1891244704032839</v>
+        <v>0.3965322659761982</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.08929760940476032</v>
+        <v>-0.1163524707839507</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.02001463893520696</v>
       </c>
       <c r="E95" t="n">
-        <v>1.017991422086976</v>
+        <v>1.37069696095752</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3032680754532992</v>
+        <v>0.4763458758147723</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0757835969700536</v>
+        <v>-0.1366518507474795</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.06895073868730563</v>
       </c>
       <c r="E96" t="n">
-        <v>1.032330047276646</v>
+        <v>1.36003249792458</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4434540735591031</v>
+        <v>0.5613218542613421</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.094108663702949</v>
+        <v>-0.1136682098855825</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1099249107226432</v>
       </c>
       <c r="E97" t="n">
-        <v>1.047860457468682</v>
+        <v>1.326875990095202</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4899233199998609</v>
+        <v>0.5806112055841761</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1281757831027118</v>
+        <v>-0.1126289050524038</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1432425494135152</v>
       </c>
       <c r="E98" t="n">
-        <v>1.021149591351177</v>
+        <v>1.262440310279477</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5314034153048195</v>
+        <v>0.5955981764532294</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.148658139269265</v>
+        <v>-0.15771241171559</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1693372527960605</v>
       </c>
       <c r="E99" t="n">
-        <v>0.942982767339823</v>
+        <v>1.1573558570412</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5187804969788418</v>
+        <v>0.5682011495743834</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1858151168174335</v>
+        <v>-0.1816322808162953</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1938110895446989</v>
       </c>
       <c r="E100" t="n">
-        <v>0.942367967297661</v>
+        <v>1.125476523108933</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5267387419690504</v>
+        <v>0.5504481884362776</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2141245850286946</v>
+        <v>-0.1953475670743289</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2177571439056318</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9183761275570994</v>
+        <v>1.08536265011989</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5212482360369644</v>
+        <v>0.529436421122307</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2447651700664868</v>
+        <v>-0.2258710473421854</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2496868785449692</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8810270249957554</v>
+        <v>1.037416175800048</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5071822453898007</v>
+        <v>0.5243637108537935</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2448871542018364</v>
+        <v>-0.2251202349891086</v>
       </c>
     </row>
   </sheetData>
